--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Thbs2</t>
+  </si>
+  <si>
+    <t>Cd47</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Thbs2</t>
-  </si>
-  <si>
-    <t>Cd47</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H2">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I2">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J2">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N2">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O2">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P2">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q2">
-        <v>132.7509725310388</v>
+        <v>116.2475965072965</v>
       </c>
       <c r="R2">
-        <v>531.0038901241551</v>
+        <v>464.9903860291859</v>
       </c>
       <c r="S2">
-        <v>0.003679660766151486</v>
+        <v>0.00340249333618866</v>
       </c>
       <c r="T2">
-        <v>0.00185078137651698</v>
+        <v>0.001734096643998422</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H3">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I3">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J3">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N3">
         <v>195.733932</v>
       </c>
       <c r="O3">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P3">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q3">
-        <v>147.61747505449</v>
+        <v>158.902743260204</v>
       </c>
       <c r="R3">
-        <v>885.70485032694</v>
+        <v>953.416459561224</v>
       </c>
       <c r="S3">
-        <v>0.004091738244925852</v>
+        <v>0.004650982396965134</v>
       </c>
       <c r="T3">
-        <v>0.003087069741979827</v>
+        <v>0.00355559240047213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H4">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I4">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J4">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N4">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O4">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P4">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q4">
-        <v>170.8145744874159</v>
+        <v>190.9657622691837</v>
       </c>
       <c r="R4">
-        <v>1024.887446924495</v>
+        <v>1145.794573615102</v>
       </c>
       <c r="S4">
-        <v>0.004734727558257584</v>
+        <v>0.005589446604345938</v>
       </c>
       <c r="T4">
-        <v>0.003572182115935884</v>
+        <v>0.004273031409928632</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H5">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I5">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J5">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N5">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O5">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P5">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q5">
-        <v>77.44842919146376</v>
+        <v>78.14595332508399</v>
       </c>
       <c r="R5">
-        <v>309.793716765855</v>
+        <v>312.583813300336</v>
       </c>
       <c r="S5">
-        <v>0.002146755996301707</v>
+        <v>0.002287282433594394</v>
       </c>
       <c r="T5">
-        <v>0.001079766932438408</v>
+        <v>0.001165724191076757</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H6">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I6">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J6">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N6">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O6">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P6">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q6">
-        <v>103.6472176022267</v>
+        <v>164.8103100094903</v>
       </c>
       <c r="R6">
-        <v>621.8833056133601</v>
+        <v>988.861860056942</v>
       </c>
       <c r="S6">
-        <v>0.002872947691908672</v>
+        <v>0.004823893124597036</v>
       </c>
       <c r="T6">
-        <v>0.002167535985709848</v>
+        <v>0.003687779542167027</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H7">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I7">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J7">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N7">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O7">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P7">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q7">
-        <v>231.1462633984292</v>
+        <v>139.3084623511637</v>
       </c>
       <c r="R7">
-        <v>1386.877580390575</v>
+        <v>835.850774106982</v>
       </c>
       <c r="S7">
-        <v>0.006407032810782994</v>
+        <v>0.004077470236511702</v>
       </c>
       <c r="T7">
-        <v>0.004833876446170021</v>
+        <v>0.00311715266769284</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H8">
         <v>244.890976</v>
       </c>
       <c r="I8">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J8">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N8">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O8">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P8">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q8">
-        <v>4789.567872153796</v>
+        <v>3896.269426620207</v>
       </c>
       <c r="R8">
-        <v>28737.40723292278</v>
+        <v>23377.61655972125</v>
       </c>
       <c r="S8">
-        <v>0.1327597429228873</v>
+        <v>0.1140413321082192</v>
       </c>
       <c r="T8">
-        <v>0.1001624641650782</v>
+        <v>0.08718254750830494</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H9">
         <v>244.890976</v>
       </c>
       <c r="I9">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J9">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N9">
         <v>195.733932</v>
       </c>
       <c r="O9">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P9">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q9">
-        <v>5325.941515977514</v>
+        <v>5325.941515977515</v>
       </c>
       <c r="R9">
-        <v>47933.47364379762</v>
+        <v>47933.47364379763</v>
       </c>
       <c r="S9">
-        <v>0.1476272276240964</v>
+        <v>0.1558869263667451</v>
       </c>
       <c r="T9">
-        <v>0.1670691721504444</v>
+        <v>0.1787591276686719</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H10">
         <v>244.890976</v>
       </c>
       <c r="I10">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J10">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N10">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O10">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P10">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q10">
-        <v>6162.877623131992</v>
+        <v>6400.597375051459</v>
       </c>
       <c r="R10">
-        <v>55465.89860818793</v>
+        <v>57605.37637546313</v>
       </c>
       <c r="S10">
-        <v>0.1708258596081433</v>
+        <v>0.1873414209890549</v>
       </c>
       <c r="T10">
-        <v>0.193322975754116</v>
+        <v>0.2148287208731379</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H11">
         <v>244.890976</v>
       </c>
       <c r="I11">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J11">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N11">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O11">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P11">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q11">
-        <v>2794.288441973423</v>
+        <v>2619.217066870741</v>
       </c>
       <c r="R11">
-        <v>16765.73065184054</v>
+        <v>15715.30240122445</v>
       </c>
       <c r="S11">
-        <v>0.07745354593794865</v>
+        <v>0.07666282042657058</v>
       </c>
       <c r="T11">
-        <v>0.05843592228085419</v>
+        <v>0.05860734753271469</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H12">
         <v>244.890976</v>
       </c>
       <c r="I12">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J12">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N12">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O12">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P12">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q12">
-        <v>3739.523515352689</v>
+        <v>5523.945366401362</v>
       </c>
       <c r="R12">
-        <v>33655.7116381742</v>
+        <v>49715.50829761226</v>
       </c>
       <c r="S12">
-        <v>0.1036540652109112</v>
+        <v>0.1616823733424127</v>
       </c>
       <c r="T12">
-        <v>0.1173049114551583</v>
+        <v>0.1854049001523957</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H13">
         <v>244.890976</v>
       </c>
       <c r="I13">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J13">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N13">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O13">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P13">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q13">
-        <v>8339.605321404815</v>
+        <v>4669.200216059886</v>
       </c>
       <c r="R13">
-        <v>75056.44789264335</v>
+        <v>42022.80194453898</v>
       </c>
       <c r="S13">
-        <v>0.2311615344225557</v>
+        <v>0.1366645255282955</v>
       </c>
       <c r="T13">
-        <v>0.2616046295155048</v>
+        <v>0.1567163580428553</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H14">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I14">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J14">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N14">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O14">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P14">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q14">
-        <v>505.1058264516499</v>
+        <v>667.9353117211522</v>
       </c>
       <c r="R14">
-        <v>2020.4233058066</v>
+        <v>2671.741246884609</v>
       </c>
       <c r="S14">
-        <v>0.01400078701430297</v>
+        <v>0.01955004245609215</v>
       </c>
       <c r="T14">
-        <v>0.007042061078297219</v>
+        <v>0.009963770583342682</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H15">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I15">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J15">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N15">
         <v>195.733932</v>
       </c>
       <c r="O15">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P15">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q15">
-        <v>561.6715668027999</v>
+        <v>913.0232068599262</v>
       </c>
       <c r="R15">
-        <v>3370.029400816799</v>
+        <v>5478.139241159556</v>
       </c>
       <c r="S15">
-        <v>0.01556870573843715</v>
+        <v>0.02672360952367312</v>
       </c>
       <c r="T15">
-        <v>0.01174603005617921</v>
+        <v>0.02042971889069248</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H16">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I16">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J16">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N16">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O16">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P16">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q16">
-        <v>649.9344989452333</v>
+        <v>1097.250866097077</v>
       </c>
       <c r="R16">
-        <v>3899.606993671399</v>
+        <v>6583.505196582463</v>
       </c>
       <c r="S16">
-        <v>0.01801522377380647</v>
+        <v>0.03211583613075568</v>
       </c>
       <c r="T16">
-        <v>0.01359184016134966</v>
+        <v>0.02455197915946428</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H17">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I17">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J17">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N17">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O17">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P17">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q17">
-        <v>294.6844914826499</v>
+        <v>449.010932373646</v>
       </c>
       <c r="R17">
-        <v>1178.7379659306</v>
+        <v>1796.043729494584</v>
       </c>
       <c r="S17">
-        <v>0.00816821859025159</v>
+        <v>0.01314226488270917</v>
       </c>
       <c r="T17">
-        <v>0.004108418630657827</v>
+        <v>0.006698016770599382</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H18">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I18">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J18">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N18">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O18">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P18">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q18">
-        <v>394.3685873498666</v>
+        <v>946.9668973684038</v>
       </c>
       <c r="R18">
-        <v>2366.2115240992</v>
+        <v>5681.801384210424</v>
       </c>
       <c r="S18">
-        <v>0.01093131440475583</v>
+        <v>0.02771711979167679</v>
       </c>
       <c r="T18">
-        <v>0.008247284630398311</v>
+        <v>0.02118923962356172</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H19">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I19">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J19">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N19">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O19">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P19">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q19">
-        <v>879.4912924481665</v>
+        <v>800.4384092369472</v>
       </c>
       <c r="R19">
-        <v>5276.947754688999</v>
+        <v>4802.630455421683</v>
       </c>
       <c r="S19">
-        <v>0.02437819882816085</v>
+        <v>0.02342832398506596</v>
       </c>
       <c r="T19">
-        <v>0.01839247661057243</v>
+        <v>0.01791053235794991</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H20">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I20">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J20">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>58.6738795</v>
+        <v>47.7306615</v>
       </c>
       <c r="N20">
-        <v>117.347759</v>
+        <v>95.46132299999999</v>
       </c>
       <c r="O20">
-        <v>0.153749292579248</v>
+        <v>0.1370228943284548</v>
       </c>
       <c r="P20">
-        <v>0.1115519052933064</v>
+        <v>0.09890260491781404</v>
       </c>
       <c r="Q20">
-        <v>112.6003576198558</v>
+        <v>0.9916999539854999</v>
       </c>
       <c r="R20">
-        <v>675.6021457191349</v>
+        <v>5.950199723912999</v>
       </c>
       <c r="S20">
-        <v>0.003121115501368809</v>
+        <v>2.902642795477043E-05</v>
       </c>
       <c r="T20">
-        <v>0.002354769696582692</v>
+        <v>2.219018216800343E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H21">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I21">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J21">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>65.24464399999999</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N21">
         <v>195.733932</v>
       </c>
       <c r="O21">
-        <v>0.1709673528505112</v>
+        <v>0.1873011954864622</v>
       </c>
       <c r="P21">
-        <v>0.186066553219397</v>
+        <v>0.2027899377175642</v>
       </c>
       <c r="Q21">
-        <v>125.2102351128866</v>
+        <v>1.355587968388</v>
       </c>
       <c r="R21">
-        <v>1126.89211601598</v>
+        <v>12.200291715492</v>
       </c>
       <c r="S21">
-        <v>0.003470642669361746</v>
+        <v>3.967719907884882E-05</v>
       </c>
       <c r="T21">
-        <v>0.003927713111816453</v>
+        <v>4.549875772766731E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H22">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I22">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J22">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>75.49740366666667</v>
+        <v>78.40955366666667</v>
       </c>
       <c r="N22">
-        <v>226.492211</v>
+        <v>235.228661</v>
       </c>
       <c r="O22">
-        <v>0.1978337294932054</v>
+        <v>0.2250943868944489</v>
       </c>
       <c r="P22">
-        <v>0.2153056682671168</v>
+        <v>0.2437084108317817</v>
       </c>
       <c r="Q22">
-        <v>144.8861865736572</v>
+        <v>1.629115296532333</v>
       </c>
       <c r="R22">
-        <v>1303.975679162915</v>
+        <v>14.662037668791</v>
       </c>
       <c r="S22">
-        <v>0.0040160309648032</v>
+        <v>4.768317029235401E-05</v>
       </c>
       <c r="T22">
-        <v>0.004544926971931462</v>
+        <v>5.467938925092755E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H23">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I23">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J23">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>34.2310095</v>
+        <v>32.086324</v>
       </c>
       <c r="N23">
-        <v>68.462019</v>
+        <v>64.172648</v>
       </c>
       <c r="O23">
-        <v>0.08969908824417377</v>
+        <v>0.09211188038616569</v>
       </c>
       <c r="P23">
-        <v>0.06508065194220319</v>
+        <v>0.06648600555927713</v>
       </c>
       <c r="Q23">
-        <v>65.69233096967248</v>
+        <v>0.666657553748</v>
       </c>
       <c r="R23">
-        <v>394.1539858180349</v>
+        <v>3.999945322488</v>
       </c>
       <c r="S23">
-        <v>0.001820894327908775</v>
+        <v>1.951264329155424E-05</v>
       </c>
       <c r="T23">
-        <v>0.001373799457968929</v>
+        <v>1.491706488630124E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H24">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I24">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J24">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>45.81046933333334</v>
+        <v>67.67026033333333</v>
       </c>
       <c r="N24">
-        <v>137.431408</v>
+        <v>203.010781</v>
       </c>
       <c r="O24">
-        <v>0.1200419558540242</v>
+        <v>0.1942645385468492</v>
       </c>
       <c r="P24">
-        <v>0.1306436146730484</v>
+        <v>0.2103291095944676</v>
       </c>
       <c r="Q24">
-        <v>87.91433724212445</v>
+        <v>1.405984998945667</v>
       </c>
       <c r="R24">
-        <v>791.2290351791199</v>
+        <v>12.653864990511</v>
       </c>
       <c r="S24">
-        <v>0.002436855499920491</v>
+        <v>4.115228816273705E-05</v>
       </c>
       <c r="T24">
-        <v>0.002757780103129981</v>
+        <v>4.719027634321231E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H25">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I25">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J25">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>102.1630783333333</v>
+        <v>57.19933366666667</v>
       </c>
       <c r="N25">
-        <v>306.489235</v>
+        <v>171.598001</v>
       </c>
       <c r="O25">
-        <v>0.2677085809788375</v>
+        <v>0.1642051043576192</v>
       </c>
       <c r="P25">
-        <v>0.2913516066049282</v>
+        <v>0.1777839313790954</v>
       </c>
       <c r="Q25">
-        <v>196.0599717269194</v>
+        <v>1.188430555592333</v>
       </c>
       <c r="R25">
-        <v>1764.539745542275</v>
+        <v>10.695875000331</v>
       </c>
       <c r="S25">
-        <v>0.005434492659612232</v>
+        <v>3.47846077460371E-05</v>
       </c>
       <c r="T25">
-        <v>0.006150194678253816</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.346763</v>
-      </c>
-      <c r="I26">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J26">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>58.6738795</v>
-      </c>
-      <c r="N26">
-        <v>117.347759</v>
-      </c>
-      <c r="O26">
-        <v>0.153749292579248</v>
-      </c>
-      <c r="P26">
-        <v>0.1115519052933064</v>
-      </c>
-      <c r="Q26">
-        <v>6.781976825686166</v>
-      </c>
-      <c r="R26">
-        <v>40.691860954117</v>
-      </c>
-      <c r="S26">
-        <v>0.0001879863745374153</v>
-      </c>
-      <c r="T26">
-        <v>0.0001418289768312044</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H27">
-        <v>0.346763</v>
-      </c>
-      <c r="I27">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J27">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>65.24464399999999</v>
-      </c>
-      <c r="N27">
-        <v>195.733932</v>
-      </c>
-      <c r="O27">
-        <v>0.1709673528505112</v>
-      </c>
-      <c r="P27">
-        <v>0.186066553219397</v>
-      </c>
-      <c r="Q27">
-        <v>7.541476162457332</v>
-      </c>
-      <c r="R27">
-        <v>67.87328546211599</v>
-      </c>
-      <c r="S27">
-        <v>0.0002090385736900919</v>
-      </c>
-      <c r="T27">
-        <v>0.0002365681589770158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H28">
-        <v>0.346763</v>
-      </c>
-      <c r="I28">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J28">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>75.49740366666667</v>
-      </c>
-      <c r="N28">
-        <v>226.492211</v>
-      </c>
-      <c r="O28">
-        <v>0.1978337294932054</v>
-      </c>
-      <c r="P28">
-        <v>0.2153056682671168</v>
-      </c>
-      <c r="Q28">
-        <v>8.726568729221444</v>
-      </c>
-      <c r="R28">
-        <v>78.539118562993</v>
-      </c>
-      <c r="S28">
-        <v>0.0002418875881947508</v>
-      </c>
-      <c r="T28">
-        <v>0.0002737432637837358</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H29">
-        <v>0.346763</v>
-      </c>
-      <c r="I29">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J29">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>34.2310095</v>
-      </c>
-      <c r="N29">
-        <v>68.462019</v>
-      </c>
-      <c r="O29">
-        <v>0.08969908824417377</v>
-      </c>
-      <c r="P29">
-        <v>0.06508065194220319</v>
-      </c>
-      <c r="Q29">
-        <v>3.9566825157495</v>
-      </c>
-      <c r="R29">
-        <v>23.740095094497</v>
-      </c>
-      <c r="S29">
-        <v>0.0001096733917630386</v>
-      </c>
-      <c r="T29">
-        <v>8.274464028382916E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H30">
-        <v>0.346763</v>
-      </c>
-      <c r="I30">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J30">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>45.81046933333334</v>
-      </c>
-      <c r="N30">
-        <v>137.431408</v>
-      </c>
-      <c r="O30">
-        <v>0.1200419558540242</v>
-      </c>
-      <c r="P30">
-        <v>0.1306436146730484</v>
-      </c>
-      <c r="Q30">
-        <v>5.295125259144889</v>
-      </c>
-      <c r="R30">
-        <v>47.656127332304</v>
-      </c>
-      <c r="S30">
-        <v>0.0001467730465279832</v>
-      </c>
-      <c r="T30">
-        <v>0.0001661024986519922</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H31">
-        <v>0.346763</v>
-      </c>
-      <c r="I31">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J31">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>102.1630783333333</v>
-      </c>
-      <c r="N31">
-        <v>306.489235</v>
-      </c>
-      <c r="O31">
-        <v>0.2677085809788375</v>
-      </c>
-      <c r="P31">
-        <v>0.2913516066049282</v>
-      </c>
-      <c r="Q31">
-        <v>11.80879184403389</v>
-      </c>
-      <c r="R31">
-        <v>106.279126596305</v>
-      </c>
-      <c r="S31">
-        <v>0.0003273222577256938</v>
-      </c>
-      <c r="T31">
-        <v>0.0003704293544270288</v>
+        <v>3.988831059732154E-05</v>
       </c>
     </row>
   </sheetData>
